--- a/T3A - Contatos.xlsx
+++ b/T3A - Contatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6C3064-083B-4B89-8BD7-90BCD5FF9A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8430CC-6174-4463-A56E-6E3973CEA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E89F831-A46B-4420-B25C-CD8A18A9F07F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5E89F831-A46B-4420-B25C-CD8A18A9F07F}"/>
   </bookViews>
   <sheets>
     <sheet name="1-alumínio quadrado" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
   <si>
     <r>
       <t>U</t>
@@ -426,17 +426,34 @@
   <si>
     <t>res</t>
   </si>
+  <si>
+    <t>Barra 1 - Alumínio Quadrada</t>
+  </si>
+  <si>
+    <t>Barra 2 - Alumínio Circular</t>
+  </si>
+  <si>
+    <t>Barra 3 - Latão Circular</t>
+  </si>
+  <si>
+    <t>Barra 4 - Latão Circular</t>
+  </si>
+  <si>
+    <t>Barra 5 - Cobre Circular</t>
+  </si>
+  <si>
+    <t>Barra 6 - Aço Circular</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -508,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -583,12 +600,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,9 +637,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,39 +662,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -687,10 +683,44 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -708,7 +738,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -778,7 +808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -885,7 +915,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -897,7 +927,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1-alumínio quadrado'!$I$3:$I$14</c:f>
+                <c:f>'1-alumínio quadrado'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -942,7 +972,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1-alumínio quadrado'!$I$3:$I$14</c:f>
+                <c:f>'1-alumínio quadrado'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -1006,7 +1036,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1-alumínio quadrado'!$F$24</c:f>
+                <c:f>'1-alumínio quadrado'!$F$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -1018,7 +1048,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1-alumínio quadrado'!$F$24</c:f>
+                <c:f>'1-alumínio quadrado'!$F$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -1044,7 +1074,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$A$3:$A$14</c:f>
+              <c:f>'1-alumínio quadrado'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1089,7 +1119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$H$3:$H$14</c:f>
+              <c:f>'1-alumínio quadrado'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1160,7 +1190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$A$3:$A$14</c:f>
+              <c:f>'1-alumínio quadrado'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1205,7 +1235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$C$20:$C$31</c:f>
+              <c:f>'1-alumínio quadrado'!$C$21:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1275,7 +1305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$A$3:$A$14</c:f>
+              <c:f>'1-alumínio quadrado'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1320,7 +1350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$B$20:$B$31</c:f>
+              <c:f>'1-alumínio quadrado'!$B$21:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1465,7 +1495,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1503,7 +1533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139947344"/>
@@ -1605,7 +1635,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1643,7 +1673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139946928"/>
@@ -1699,7 +1729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1733,7 +1763,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1747,7 +1777,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1784,7 +1814,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1834,7 +1864,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-cobre'!$A$3:$A$14</c:f>
+              <c:f>'5-cobre'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1879,7 +1909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-cobre'!$C$17:$C$28</c:f>
+              <c:f>'5-cobre'!$C$18:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2020,7 +2050,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2058,7 +2088,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="712031759"/>
@@ -2145,7 +2175,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2183,7 +2213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="712031343"/>
@@ -2239,7 +2269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2273,7 +2303,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2287,7 +2317,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2357,7 +2387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2464,7 +2494,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2476,7 +2506,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'6-aço'!$I$3:$I$14</c:f>
+                <c:f>'6-aço'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -2521,7 +2551,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'6-aço'!$I$3:$I$14</c:f>
+                <c:f>'6-aço'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -2585,7 +2615,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'6-aço'!$E$19</c:f>
+                <c:f>'6-aço'!$E$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2597,7 +2627,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'6-aço'!$E$19</c:f>
+                <c:f>'6-aço'!$E$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2623,7 +2653,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'6-aço'!$A$3:$A$14</c:f>
+              <c:f>'6-aço'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2668,7 +2698,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6-aço'!$H$3:$H$14</c:f>
+              <c:f>'6-aço'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2738,7 +2768,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6-aço'!$A$3:$A$14</c:f>
+              <c:f>'6-aço'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2783,7 +2813,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6-aço'!$B$17:$B$28</c:f>
+              <c:f>'6-aço'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2853,7 +2883,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6-aço'!$A$3:$A$14</c:f>
+              <c:f>'6-aço'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2898,7 +2928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6-aço'!$A$17:$A$28</c:f>
+              <c:f>'6-aço'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3042,7 +3072,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3080,7 +3110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139947344"/>
@@ -3182,7 +3212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3220,7 +3250,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139946928"/>
@@ -3276,7 +3306,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3297,10 +3327,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3313,7 +3340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3327,7 +3354,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3364,7 +3391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3414,7 +3441,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6-aço'!$A$3:$A$14</c:f>
+              <c:f>'6-aço'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3459,7 +3486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6-aço'!$C$17:$C$28</c:f>
+              <c:f>'6-aço'!$C$18:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3600,7 +3627,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3638,7 +3665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="626711807"/>
@@ -3725,7 +3752,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3763,7 +3790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="626718463"/>
@@ -3819,7 +3846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3853,7 +3880,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3867,7 +3894,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3937,7 +3964,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3987,7 +4014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$A$3:$A$14</c:f>
+              <c:f>'1-alumínio quadrado'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4032,7 +4059,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-alumínio quadrado'!$A$19:$A$30</c:f>
+              <c:f>'1-alumínio quadrado'!$A$20:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4173,7 +4200,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4211,7 +4238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54884751"/>
@@ -4300,7 +4327,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4338,7 +4365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54888495"/>
@@ -4394,7 +4421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4428,7 +4455,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4442,7 +4469,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4512,7 +4539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4619,7 +4646,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4631,7 +4658,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'2-alumínio'!$I$3:$I$14</c:f>
+                <c:f>'2-alumínio'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -4676,7 +4703,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'2-alumínio'!$I$3:$I$14</c:f>
+                <c:f>'2-alumínio'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -4740,7 +4767,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'2-alumínio'!$F$21</c:f>
+                <c:f>'2-alumínio'!$F$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -4752,7 +4779,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'2-alumínio'!$F$21</c:f>
+                <c:f>'2-alumínio'!$F$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -4778,7 +4805,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$A$3:$A$14</c:f>
+              <c:f>'2-alumínio'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4823,7 +4850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$H$3:$H$14</c:f>
+              <c:f>'2-alumínio'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4893,7 +4920,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$A$3:$A$14</c:f>
+              <c:f>'2-alumínio'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4938,7 +4965,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$C$17:$C$28</c:f>
+              <c:f>'2-alumínio'!$C$18:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5011,7 +5038,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$A$3:$A$14</c:f>
+              <c:f>'2-alumínio'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5056,7 +5083,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$B$17:$B$28</c:f>
+              <c:f>'2-alumínio'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5200,7 +5227,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5238,7 +5265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139947344"/>
@@ -5340,7 +5367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5378,7 +5405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139946928"/>
@@ -5434,7 +5461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5468,7 +5495,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5482,7 +5509,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5519,7 +5546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5569,7 +5596,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$A$3:$A$14</c:f>
+              <c:f>'2-alumínio'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5614,7 +5641,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2-alumínio'!$A$17:$A$28</c:f>
+              <c:f>'2-alumínio'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5760,7 +5787,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5798,7 +5825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="521716207"/>
@@ -5885,7 +5912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5923,7 +5950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="521720783"/>
@@ -5979,7 +6006,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6013,7 +6040,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6027,7 +6054,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6097,7 +6124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6204,7 +6231,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6216,7 +6243,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'3-latão'!$I$3:$I$14</c:f>
+                <c:f>'3-latão'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -6261,7 +6288,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'3-latão'!$I$3:$I$14</c:f>
+                <c:f>'3-latão'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -6325,7 +6352,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'3-latão'!$E$20</c:f>
+                <c:f>'3-latão'!$E$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -6337,7 +6364,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'3-latão'!$E$20</c:f>
+                <c:f>'3-latão'!$E$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -6363,7 +6390,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'3-latão'!$A$3:$A$14</c:f>
+              <c:f>'3-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6408,7 +6435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3-latão'!$H$3:$H$14</c:f>
+              <c:f>'3-latão'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6478,7 +6505,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3-latão'!$A$3:$A$14</c:f>
+              <c:f>'3-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6523,7 +6550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3-latão'!$B$17:$B$28</c:f>
+              <c:f>'3-latão'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6593,7 +6620,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3-latão'!$A$3:$A$14</c:f>
+              <c:f>'3-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6638,7 +6665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3-latão'!$A$17:$A$28</c:f>
+              <c:f>'3-latão'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6782,7 +6809,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6820,7 +6847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139947344"/>
@@ -6922,7 +6949,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6960,7 +6987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139946928"/>
@@ -7016,7 +7043,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7050,7 +7077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7064,7 +7091,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7101,7 +7128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7151,7 +7178,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3-latão'!$A$3:$A$14</c:f>
+              <c:f>'3-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7196,7 +7223,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3-latão'!$C$17:$C$28</c:f>
+              <c:f>'3-latão'!$C$18:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7342,7 +7369,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7380,7 +7407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777921743"/>
@@ -7472,7 +7499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7510,7 +7537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777927983"/>
@@ -7566,7 +7593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7600,7 +7627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7614,7 +7641,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7684,7 +7711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7791,7 +7818,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7803,7 +7830,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'4-latão'!$I$3:$I$14</c:f>
+                <c:f>'4-latão'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -7848,7 +7875,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'4-latão'!$I$3:$I$14</c:f>
+                <c:f>'4-latão'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -7912,7 +7939,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'4-latão'!$E$19</c:f>
+                <c:f>'4-latão'!$E$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -7924,7 +7951,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'4-latão'!$E$19</c:f>
+                <c:f>'4-latão'!$E$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -7950,7 +7977,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-latão'!$A$3:$A$14</c:f>
+              <c:f>'4-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7995,7 +8022,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-latão'!$H$3:$H$14</c:f>
+              <c:f>'4-latão'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8065,7 +8092,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-latão'!$A$3:$A$14</c:f>
+              <c:f>'4-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8110,7 +8137,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-latão'!$B$17:$B$28</c:f>
+              <c:f>'4-latão'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8180,7 +8207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-latão'!$A$3:$A$14</c:f>
+              <c:f>'4-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8225,7 +8252,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-latão'!$A$17:$A$28</c:f>
+              <c:f>'4-latão'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8371,7 +8398,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8409,7 +8436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139947344"/>
@@ -8511,7 +8538,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8549,7 +8576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139946928"/>
@@ -8605,7 +8632,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8639,7 +8666,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8653,7 +8680,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8690,7 +8717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8740,7 +8767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-latão'!$A$3:$A$14</c:f>
+              <c:f>'4-latão'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8785,7 +8812,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-latão'!$C$17:$C$28</c:f>
+              <c:f>'4-latão'!$C$18:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8931,7 +8958,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8969,7 +8996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="708033583"/>
@@ -9061,7 +9088,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9099,7 +9126,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="708038991"/>
@@ -9155,7 +9182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9189,13 +9216,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9203,7 +9230,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9273,7 +9300,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9380,7 +9407,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9392,7 +9419,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'5-cobre'!$I$3:$I$14</c:f>
+                <c:f>'5-cobre'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -9437,7 +9464,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'5-cobre'!$I$3:$I$14</c:f>
+                <c:f>'5-cobre'!$I$4:$I$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -9501,7 +9528,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'5-cobre'!$E$19</c:f>
+                <c:f>'5-cobre'!$E$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -9513,7 +9540,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'5-cobre'!$E$19</c:f>
+                <c:f>'5-cobre'!$E$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -9539,7 +9566,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-cobre'!$A$3:$A$14</c:f>
+              <c:f>'5-cobre'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9584,7 +9611,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-cobre'!$H$3:$H$14</c:f>
+              <c:f>'5-cobre'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9654,7 +9681,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-cobre'!$A$3:$A$14</c:f>
+              <c:f>'5-cobre'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9699,7 +9726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-cobre'!$B$17:$B$28</c:f>
+              <c:f>'5-cobre'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9769,7 +9796,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-cobre'!$A$3:$A$14</c:f>
+              <c:f>'5-cobre'!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9814,7 +9841,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-cobre'!$A$17:$A$28</c:f>
+              <c:f>'5-cobre'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9958,7 +9985,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9996,7 +10023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139947344"/>
@@ -10098,7 +10125,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10136,7 +10163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139946928"/>
@@ -10192,7 +10219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10226,7 +10253,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16915,14 +16942,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>705827</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16951,12 +16978,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259226</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>6740</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331822" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -17028,7 +17055,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -17091,13 +17118,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>22347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438085</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17126,8 +17153,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>442546</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="194669"/>
@@ -17146,7 +17173,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5486400" y="4533900"/>
+              <a:off x="5665177" y="4249615"/>
               <a:ext cx="363689" cy="194669"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -17218,7 +17245,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5486400" y="4533900"/>
+              <a:off x="5665177" y="4249615"/>
               <a:ext cx="363689" cy="194669"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -17272,13 +17299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>141085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17310,12 +17337,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>202076</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>225815</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331822" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -17387,7 +17414,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -17450,12 +17477,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 1">
@@ -17527,7 +17554,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 1">
@@ -17590,13 +17617,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>44542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>106455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17631,13 +17658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>172642</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17669,12 +17696,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>230651</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>225815</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331822" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -17746,7 +17773,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -17809,12 +17836,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -17886,7 +17913,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -17949,13 +17976,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>34735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17990,13 +18017,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18028,12 +18055,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>221126</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>216290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331822" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -18105,7 +18132,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -18168,12 +18195,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -18245,7 +18272,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -18308,13 +18335,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18349,13 +18376,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>681718</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>164560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18387,12 +18414,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>221126</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>216290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331822" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -18464,7 +18491,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -18527,12 +18554,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -18604,7 +18631,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -18667,13 +18694,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>22450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>629561</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18708,13 +18735,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>43961</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>183174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723389</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>153132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18746,12 +18773,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>230651</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>225815</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331822" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -18823,7 +18850,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -18886,12 +18913,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="194669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -18963,7 +18990,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 1">
@@ -19026,13 +19053,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25642</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>64476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>492124</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19062,7 +19089,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -19363,791 +19390,805 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="22" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.48699999999999999</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B4" s="23">
         <v>19</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>1.84</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D4" s="9">
         <v>4.86E-4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E4" s="9">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F3" s="19">
-        <f>D3-E3</f>
+      <c r="F4" s="31">
+        <f>D4-E4</f>
         <v>4.7699999999999999E-4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H14" si="0">F3/C3</f>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H15" si="0">F4/C4</f>
         <v>2.5923913043478258E-4</v>
       </c>
-      <c r="I3" s="13">
-        <f>SQRT(((1/C3)*$F$22)^2+(-(F3/(C3^2))*$F$23)^2)</f>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="1">SQRT(((1/C4)*$F$23)^2+(-(F4/(C4^2))*$F$24)^2)</f>
         <v>1.5100964430740413E-6</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>0.45800000000000002</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B5" s="23">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="6">
         <v>1.85</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="9">
         <v>4.5899999999999999E-4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="9">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4:F14" si="1">D4-E4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F15" si="2">D5-E5</f>
         <v>4.5100000000000001E-4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10">
+      <c r="G5" s="31"/>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>2.4378378378378377E-4</v>
       </c>
-      <c r="I4" s="13">
-        <f>SQRT(((1/C4)*$F$22)^2+(-(F4/(C4^2))*$F$23)^2)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
         <v>1.4243067154759366E-6</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>0.41499999999999998</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B6" s="23">
         <v>19</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>1.84</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="9">
         <v>4.2400000000000001E-4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
+      <c r="F6" s="31">
+        <f t="shared" si="2"/>
         <v>4.1100000000000002E-4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10">
+      <c r="G6" s="31"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>2.2336956521739129E-4</v>
       </c>
-      <c r="I5" s="13">
-        <f>SQRT(((1/C5)*$F$22)^2+(-(F5/(C5^2))*$F$23)^2)</f>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
         <v>1.3300675584750214E-6</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0.36299999999999999</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B7" s="23">
         <v>19</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1.85</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="9">
         <v>3.68E-4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
+      <c r="F7" s="31">
+        <f t="shared" si="2"/>
         <v>3.6099999999999999E-4</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10">
+      <c r="G7" s="31"/>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>1.9513513513513513E-4</v>
       </c>
-      <c r="I6" s="13">
-        <f>SQRT(((1/C6)*$F$22)^2+(-(F6/(C6^2))*$F$23)^2)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
         <v>1.1852233744981386E-6</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>0.33300000000000002</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B8" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>1.85</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="9">
         <v>3.4099999999999999E-4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
         <v>3.3099999999999997E-4</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
+      <c r="G8" s="31"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>1.789189189189189E-4</v>
       </c>
-      <c r="I7" s="13">
-        <f>SQRT(((1/C7)*$F$22)^2+(-(F7/(C7^2))*$F$23)^2)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
         <v>1.107936434257594E-6</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>0.29599999999999999</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B9" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1.84</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="9">
         <v>3.0299999999999999E-4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
         <v>2.9599999999999998E-4</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10">
+      <c r="G9" s="31"/>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>1.6086956521739129E-4</v>
       </c>
-      <c r="I8" s="13">
-        <f>SQRT(((1/C8)*$F$22)^2+(-(F8/(C8^2))*$F$23)^2)</f>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
         <v>1.0294433322680511E-6</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>0.255</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B10" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1.85</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="9">
         <v>2.7E-4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
         <v>2.5599999999999999E-4</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10">
+      <c r="G10" s="31"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>1.3837837837837836E-4</v>
       </c>
-      <c r="I9" s="13">
-        <f>SQRT(((1/C9)*$F$22)^2+(-(F9/(C9^2))*$F$23)^2)</f>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
         <v>9.2286237480101256E-7</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>0.22</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B11" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1.85</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="9">
         <v>2.3499999999999999E-4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
         <v>2.23E-4</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10">
+      <c r="G11" s="31"/>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>1.2054054054054053E-4</v>
       </c>
-      <c r="I10" s="13">
-        <f>SQRT(((1/C10)*$F$22)^2+(-(F10/(C10^2))*$F$23)^2)</f>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>8.465980029716977E-7</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>0.151</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B12" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>1.85</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="9">
         <v>1.6699999999999999E-4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
         <v>1.55E-4</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>8.3783783783783773E-5</v>
       </c>
-      <c r="I11" s="13">
-        <f>SQRT(((1/C11)*$F$22)^2+(-(F11/(C11^2))*$F$23)^2)</f>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
         <v>7.0518734177631371E-7</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B13" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1.85</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="9">
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="9">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
+      <c r="F13" s="31">
+        <f t="shared" si="2"/>
         <v>1.0300000000000001E-4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10">
+      <c r="G13" s="31"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>5.5675675675675679E-5</v>
       </c>
-      <c r="I12" s="13">
-        <f>SQRT(((1/C12)*$F$22)^2+(-(F12/(C12^2))*$F$23)^2)</f>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
         <v>6.1867175194349022E-7</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B14" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>1.85</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="9">
         <v>6.3E-5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
+      <c r="F14" s="31">
+        <f t="shared" si="2"/>
         <v>4.4999999999999996E-5</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10">
+      <c r="G14" s="31"/>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>2.432432432432432E-5</v>
       </c>
-      <c r="I13" s="13">
-        <f>SQRT(((1/C13)*$F$22)^2+(-(F13/(C13^2))*$F$23)^2)</f>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
         <v>5.5630190692943073E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>0.02</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B15" s="23">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>1.85</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="9">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
+      <c r="F15" s="31">
+        <f t="shared" si="2"/>
         <v>2.7000000000000002E-5</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10">
+      <c r="G15" s="31"/>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>1.4594594594594596E-5</v>
       </c>
-      <c r="I14" s="13">
-        <f>SQRT(((1/C14)*$F$22)^2+(-(F14/(C14^2))*$F$23)^2)</f>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
         <v>5.4626702336368957E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="26" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I19" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <f>H3-(B$50*A3+C$50)</f>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <f>H4-(B$50*A4+C$50)</f>
         <v>-7.40022981806233E-7</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="15">
         <v>8.4499999999999992E-3</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K20" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <f>H4-(B$50*A4+C$50)</f>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <f>H5-(B$50*A5+C$50)</f>
         <v>-9.9885160004817633E-7</v>
       </c>
-      <c r="B20" s="28" cm="1">
-        <f t="array" ref="B20:B31">((B$50*A3:A14)+C$50)-C$52</f>
+      <c r="B21" s="19" cm="1">
+        <f t="array" ref="B21:B32">((B$50*A4:A15)+C$50)-C$52</f>
         <v>2.5916503079883218E-4</v>
       </c>
-      <c r="C20" cm="1">
-        <f t="array" ref="C20:C31">(B$50*A3:A14+C$50)+C$52</f>
+      <c r="C21" cm="1">
+        <f t="array" ref="C21:C32">(B$50*A4:A15+C$50)+C$52</f>
         <v>2.6079327603434544E-4</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="15">
         <v>8.4700000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <f>H5-(B$50*A5+C$50)</f>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <f>H6-(B$50*A6+C$50)</f>
         <v>1.1196979510953568E-6</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2.4396851276607532E-4</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2.4559675800158858E-4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="15">
         <v>8.43E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <f>H6-(B$50*A6+C$50)</f>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <f>H7-(B$50*A7+C$50)</f>
         <v>1.3419675516185498E-7</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>2.2143574464853931E-4</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2.2306398988405256E-4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="31">
-        <f>AVERAGE(I19:I21)</f>
+      <c r="H23" s="4"/>
+      <c r="I23" s="18">
+        <f>AVERAGE(I20:I22)</f>
         <v>8.4499999999999992E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <f>H7-(B$50*A7+C$50)</f>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <f>H8-(B$50*A8+C$50)</f>
         <v>-3.6148356509903366E-7</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1.9418681576221665E-4</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1.9581506099772991E-4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.01</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <f>H8-(B$50*A8+C$50)</f>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <f>H9-(B$50*A9+C$50)</f>
         <v>9.7782367171832902E-7</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.7846627986626131E-4</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1.8009452510177456E-4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="8">
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <f>H9-(B$50*A9+C$50)</f>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <f>H10-(B$50*A10+C$50)</f>
         <v>-2.8630776155598968E-8</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1.5907761892791633E-4</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1.6070586416342959E-4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <f>H10-(B$50*A10+C$50)</f>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <f>H11-(B$50*A11+C$50)</f>
         <v>4.7415659795450242E-7</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>1.3759288653677733E-4</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1.3922113177229059E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <f>H11-(B$50*A11+C$50)</f>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <f>H12-(B$50*A12+C$50)</f>
         <v>-1.2536759810489919E-7</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>1.1925226132482939E-4</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1.2088050656034267E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <f>H12-(B$50*A12+C$50)</f>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <f>H13-(B$50*A13+C$50)</f>
         <v>1.1115246329036925E-6</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>8.309502876413203E-5</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>8.4723273999645315E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <f>H13-(B$50*A13+C$50)</f>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <f>H14-(B$50*A14+C$50)</f>
         <v>-8.9482637933097428E-7</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>5.3750028425015351E-5</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>5.5378273660528623E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>2.4405028085898659E-5</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>2.603327332141193E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>1.4448688685126926E-5</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1.6076933920640197E-5</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="26" t="s">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G48" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="34">
-        <f>I22^2*B50</f>
+      <c r="H48" s="30"/>
+      <c r="I48" s="24">
+        <f>I23^2*B50</f>
         <v>3.7416185477031769E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="G49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="34">
-        <f>SQRT((2*B50*I22*I24)^2+(I22^2*B51)^2)</f>
+      <c r="H49" s="30"/>
+      <c r="I49" s="24">
+        <f>SQRT((2*B50*I23*I25)^2+(I23^2*B51)^2)</f>
         <v>5.1110397305080957E-9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="29">
-        <f t="array" ref="B50:C52">LINEST(H3:H14,A3:A14,TRUE,TRUE)</f>
+      <c r="B50" s="20">
+        <f t="array" ref="B50:C52">LINEST(H4:H15,A4:A15,TRUE,TRUE)</f>
         <v>5.2401786319851234E-4</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="20">
         <v>4.7824540389133148E-6</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="37">
+      <c r="H50" s="30"/>
+      <c r="I50" s="27">
         <f>I49/I48</f>
         <v>0.13659970051317896</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="20">
         <v>1.5408822362330919E-6</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="20">
         <v>4.6580456277111146E-7</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="30">
+      <c r="H51" s="30"/>
+      <c r="I51" s="21">
         <v>2.7999999999999999E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="25">
         <v>0.99991354120803755</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="20">
         <v>8.1412261775663648E-7</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="37">
+      <c r="H52" s="30"/>
+      <c r="I52" s="27">
         <f>ABS(I51-I48)/I51</f>
         <v>0.33629233846542034</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.11811023622047245" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -20161,785 +20202,788 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="22" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.65</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="D3" s="10">
-        <v>7.45E-4</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.4E-5</v>
-      </c>
-      <c r="F3" s="19">
-        <f>D3-E3</f>
-        <v>7.3099999999999999E-4</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H14" si="0">F3/C3</f>
-        <v>3.9728260869565215E-4</v>
-      </c>
-      <c r="I3" s="13">
-        <f>SQRT(((1/C3)*$F$19)^2+(-(F3/(C3^2))*$F$20)^2)</f>
-        <v>2.2264936733850252E-6</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0.57999999999999996</v>
       </c>
       <c r="B4" s="6">
         <v>19.100000000000001</v>
       </c>
       <c r="C4" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7.45E-4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.4E-5</v>
+      </c>
+      <c r="F4" s="31">
+        <f>D4-E4</f>
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H15" si="0">F4/C4</f>
+        <v>3.9728260869565215E-4</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="1">SQRT(((1/C4)*$F$20)^2+(-(F4/(C4^2))*$F$21)^2)</f>
+        <v>2.2264936733850252E-6</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5" s="6">
         <v>1.83</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="9">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="9">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4:F14" si="1">D4-E4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F15" si="2">D5-E5</f>
         <v>6.7100000000000005E-4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10">
+      <c r="G5" s="31"/>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>3.6666666666666667E-4</v>
       </c>
-      <c r="I4" s="13">
-        <f>SQRT(((1/C4)*$F$19)^2+(-(F4/(C4^2))*$F$20)^2)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
         <v>2.0768222679401424E-6</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>0.52400000000000002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>1.83</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="9">
         <v>6.1700000000000004E-4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
+      <c r="F6" s="31">
+        <f t="shared" si="2"/>
         <v>6.0900000000000006E-4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10">
+      <c r="G6" s="31"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>3.3278688524590166E-4</v>
       </c>
-      <c r="I5" s="13">
-        <f>SQRT(((1/C5)*$F$19)^2+(-(F5/(C5^2))*$F$20)^2)</f>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
         <v>1.8988352464421826E-6</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0.46800000000000003</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1.83</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="9">
         <v>5.5599999999999996E-4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
+      <c r="F7" s="31">
+        <f t="shared" si="2"/>
         <v>5.4699999999999996E-4</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10">
+      <c r="G7" s="31"/>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>2.9890710382513659E-4</v>
       </c>
-      <c r="I6" s="13">
-        <f>SQRT(((1/C6)*$F$19)^2+(-(F6/(C6^2))*$F$20)^2)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
         <v>1.7223559734706309E-6</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>0.40799999999999997</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>1.84</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="9">
         <v>4.84E-4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="9">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
         <v>4.7699999999999999E-4</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
+      <c r="G8" s="31"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>2.5923913043478258E-4</v>
       </c>
-      <c r="I7" s="13">
-        <f>SQRT(((1/C7)*$F$19)^2+(-(F7/(C7^2))*$F$20)^2)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
         <v>1.5100964430740413E-6</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>0.34799999999999998</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1.84</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="9">
         <v>4.1599999999999997E-4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
         <v>4.1099999999999996E-4</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10">
+      <c r="G9" s="31"/>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>2.2336956521739126E-4</v>
       </c>
-      <c r="I8" s="13">
-        <f>SQRT(((1/C8)*$F$19)^2+(-(F8/(C8^2))*$F$20)^2)</f>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
         <v>1.330067558475021E-6</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>0.28299999999999997</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1.84</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="9">
         <v>3.4200000000000002E-4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
         <v>3.3400000000000004E-4</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10">
+      <c r="G10" s="31"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>1.8152173913043481E-4</v>
       </c>
-      <c r="I9" s="13">
-        <f>SQRT(((1/C9)*$F$19)^2+(-(F9/(C9^2))*$F$20)^2)</f>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
         <v>1.1263269555099104E-6</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>0.217</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1.84</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="9">
         <v>2.7099999999999997E-4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
         <v>2.5899999999999995E-4</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10">
+      <c r="G11" s="31"/>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>1.4076086956521736E-4</v>
       </c>
-      <c r="I10" s="13">
-        <f>SQRT(((1/C10)*$F$19)^2+(-(F10/(C10^2))*$F$20)^2)</f>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>9.3840335180771788E-7</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>0.16500000000000001</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>1.84</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="9">
         <v>2.0900000000000001E-4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
         <v>1.9600000000000002E-4</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>1.0652173913043479E-4</v>
       </c>
-      <c r="I11" s="13">
-        <f>SQRT(((1/C11)*$F$19)^2+(-(F11/(C11^2))*$F$20)^2)</f>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
         <v>7.9405281661373127E-7</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>0.11700000000000001</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1.84</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="9">
         <v>1.56E-4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
+      <c r="F13" s="31">
+        <f t="shared" si="2"/>
         <v>1.4099999999999998E-4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10">
+      <c r="G13" s="31"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>7.6630434782608682E-5</v>
       </c>
-      <c r="I12" s="13">
-        <f>SQRT(((1/C12)*$F$19)^2+(-(F12/(C12^2))*$F$20)^2)</f>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
         <v>6.8470115834984383E-7</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>1.83</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="9">
         <v>9.8999999999999994E-5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
+      <c r="F14" s="31">
+        <f t="shared" si="2"/>
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10">
+      <c r="G14" s="31"/>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>4.0983606557377042E-5</v>
       </c>
-      <c r="I13" s="13">
-        <f>SQRT(((1/C13)*$F$19)^2+(-(F13/(C13^2))*$F$20)^2)</f>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
         <v>5.9055987544027612E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>1.85</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="9">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
+      <c r="F15" s="31">
+        <f t="shared" si="2"/>
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10">
+      <c r="G15" s="31"/>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>1.8918918918918918E-5</v>
       </c>
-      <c r="I14" s="13">
-        <f>SQRT(((1/C14)*$F$19)^2+(-(F14/(C14^2))*$F$20)^2)</f>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
         <v>5.5012915657451357E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I17" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <f>H3-(B$50*A3+C$50)</f>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <f t="shared" ref="A18:A29" si="3">H4-(B$51*A4+C$51)</f>
         <v>-1.06545836146505E-5</v>
       </c>
-      <c r="B17" cm="1">
-        <f t="array" ref="B17:B28">((B$50*A3:A14)+C$50)-C$52</f>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:B29">((B$51*A4:A15)+C$51)-C$53</f>
         <v>4.033946210072169E-4</v>
       </c>
-      <c r="C17" cm="1">
-        <f t="array" ref="C17:C28">(B$50*A3:A14+C$50)+C$52</f>
+      <c r="C18" cm="1">
+        <f t="array" ref="C18:C29">(B$51*A4:A15+C$51)+C$53</f>
         <v>4.1247976361338839E-4</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="11">
         <v>8.0300000000000007E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>H4-(B$50*A4+C$50)</f>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="3"/>
         <v>2.2206027822935237E-6</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3.599034925812874E-4</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>3.6898863518745889E-4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="11">
         <v>8.0199999999999994E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>H5-(B$50*A5+C$50)</f>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="3"/>
         <v>3.1337241022720108E-6</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>3.251105898405439E-4</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>3.3419573244671539E-4</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="11">
         <v>8.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>H6-(B$50*A6+C$50)</f>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="3"/>
         <v>4.0468454222505521E-6</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.9031768709980029E-4</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>2.9940282970597178E-4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.01</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9">
-        <f>AVERAGE(I17:I19)</f>
+      <c r="H21" s="4"/>
+      <c r="I21" s="18">
+        <f>AVERAGE(I18:I20)</f>
         <v>8.033333333333335E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>H7-(B$50*A7+C$50)</f>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="3"/>
         <v>1.6569821112646542E-6</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2.5303957702043218E-4</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2.6212471962660367E-4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>H8-(B$50*A8+C$50)</f>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="3"/>
         <v>3.0655269732414502E-6</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>2.1576146694106404E-4</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2.2484660954723558E-4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.1</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="8">
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>H9-(B$50*A9+C$50)</f>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="3"/>
         <v>1.6023201389337978E-6</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1.7537684768841524E-4</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1.8446199029458678E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>H10-(B$50*A10+C$50)</f>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="3"/>
         <v>1.8473716610212655E-6</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.3437092660111032E-4</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1.4345606920728186E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>H11-(B$50*A11+C$50)</f>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="3"/>
         <v>-8.4063371642292351E-8</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1.0206323119899132E-4</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1.1114837380516284E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>H12-(B$50*A12+C$50)</f>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="3"/>
         <v>-1.5287965597389757E-7</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>7.2240743135496823E-5</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>8.1325885741668336E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>H13-(B$50*A13+C$50)</f>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="3"/>
         <v>-6.5985216523671903E-6</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>4.303955690665847E-5</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>5.2124699512829996E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <f>H14-(B$50*A14+C$50)</f>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <f t="shared" si="3"/>
         <v>-8.3324896643086267E-8</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>1.4459672512476244E-5</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2.3544815118647764E-5</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="26" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="18">
-        <f>PI()/4*I20^2*B50</f>
+      <c r="H49" s="30"/>
+      <c r="I49" s="17">
+        <f>PI()/4*I21^2*B51</f>
         <v>3.149082896273672E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="G50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="1">
-        <f>SQRT((2*B50*I20*I22)^2+(I20^2*B51)^2)</f>
+      <c r="H50" s="30"/>
+      <c r="I50" s="1">
+        <f>SQRT((2*B51*I21*I23)^2+(I21^2*B52)^2)</f>
         <v>5.7754140517277272E-9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
-        <f t="array" ref="B50:C52">LINEST(H3:H14,A3:A14,TRUE,TRUE)</f>
+      <c r="B51" s="8">
+        <f t="array" ref="B51:C53">LINEST(H4:H15,A4:A15,TRUE,TRUE)</f>
         <v>6.2130183465613522E-4</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C51" s="8">
         <v>4.090999783814761E-6</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G51" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="32">
-        <f>I49/I48</f>
+      <c r="H51" s="33"/>
+      <c r="I51" s="22">
+        <f>I50/I49</f>
         <v>0.18339987361278448</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>6.5850989464542943E-6</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>2.4884617554232876E-6</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="8">
+      <c r="H52" s="30"/>
+      <c r="I52" s="8">
         <v>2.7999999999999999E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B53" s="25">
         <v>0.99887789953540251</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="8">
         <v>4.5425713030857605E-6</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="11">
-        <f>ABS(I51-I48)/I51</f>
+      <c r="H53" s="30"/>
+      <c r="I53" s="10">
+        <f>ABS(I52-I49)/I52</f>
         <v>0.12467246295488289</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
@@ -20947,6 +20991,17 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20960,788 +21015,791 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="22" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.81</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.9280000000000001E-3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F3" s="19">
-        <f>D3-E3</f>
-        <v>3.9230000000000003E-3</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H14" si="0">F3/C3</f>
-        <v>2.1674033149171271E-3</v>
-      </c>
-      <c r="I3" s="13">
-        <f>SQRT(((1/C3)*$E$18)^2+(-(F3/(C3^2))*$E$19)^2)</f>
-        <v>1.1987342522125821E-5</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0.50700000000000001</v>
       </c>
       <c r="B4" s="6">
         <v>19.100000000000001</v>
       </c>
       <c r="C4" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3.9280000000000001E-3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F4" s="31">
+        <f>D4-E4</f>
+        <v>3.9230000000000003E-3</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H15" si="0">F4/C4</f>
+        <v>2.1674033149171271E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="1">SQRT(((1/C4)*$E$19)^2+(-(F4/(C4^2))*$E$20)^2)</f>
+        <v>1.1987342522125821E-5</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5" s="6">
         <v>1.83</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="6">
         <v>3.6779999999999998E-3</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4:F14" si="1">D4-E4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F15" si="2">D5-E5</f>
         <v>3.6669999999999997E-3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10">
+      <c r="G5" s="31"/>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>2.0038251366120215E-3</v>
       </c>
-      <c r="I4" s="13">
-        <f>SQRT(((1/C4)*$E$18)^2+(-(F4/(C4^2))*$E$19)^2)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
         <v>1.0963490779678261E-5</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>0.45600000000000002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>1.82</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>3.241E-3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
+      <c r="F6" s="31">
+        <f t="shared" si="2"/>
         <v>3.2320000000000001E-3</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10">
+      <c r="G6" s="31"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>1.7758241758241758E-3</v>
       </c>
-      <c r="I5" s="13">
-        <f>SQRT(((1/C5)*$E$18)^2+(-(F5/(C5^2))*$E$19)^2)</f>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
         <v>9.7727337435917937E-6</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0.41549999999999998</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1.82</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>3.0249999999999999E-3</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
+      <c r="F7" s="31">
+        <f t="shared" si="2"/>
         <v>2.9919999999999999E-3</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10">
+      <c r="G7" s="31"/>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>1.6439560439560439E-3</v>
       </c>
-      <c r="I6" s="13">
-        <f>SQRT(((1/C6)*$E$18)^2+(-(F6/(C6^2))*$E$19)^2)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
         <v>9.0494213161981133E-6</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>0.36899999999999999</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>1.82</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>2.666E-3</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="9">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
         <v>2.6389999999999999E-3</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
+      <c r="G8" s="31"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="I7" s="13">
-        <f>SQRT(((1/C7)*$E$18)^2+(-(F7/(C7^2))*$E$19)^2)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
         <v>7.9859570624992477E-6</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>0.318</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1.83</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>2.281E-3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
         <v>2.2439999999999999E-3</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10">
+      <c r="G9" s="31"/>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>1.2262295081967212E-3</v>
       </c>
-      <c r="I8" s="13">
-        <f>SQRT(((1/C8)*$E$18)^2+(-(F8/(C8^2))*$E$19)^2)</f>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
         <v>6.7229524114743165E-6</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>0.27300000000000002</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1.81</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>1.97E-3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
         <v>1.9430000000000001E-3</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10">
+      <c r="G10" s="31"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>1.0734806629834255E-3</v>
       </c>
-      <c r="I9" s="13">
-        <f>SQRT(((1/C9)*$E$18)^2+(-(F9/(C9^2))*$E$19)^2)</f>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
         <v>5.9565102074801922E-6</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>0.22700000000000001</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1.82</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>1.6639999999999999E-3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="11">
         <v>2.8E-5</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
         <v>1.6359999999999999E-3</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10">
+      <c r="G11" s="31"/>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>8.9890109890109881E-4</v>
       </c>
-      <c r="I10" s="13">
-        <f>SQRT(((1/C10)*$E$18)^2+(-(F10/(C10^2))*$E$19)^2)</f>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>4.9694853957514767E-6</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>0.17399999999999999</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>1.82</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>1.2459999999999999E-3</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
         <v>1.227E-3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>6.7417582417582411E-4</v>
       </c>
-      <c r="I11" s="13">
-        <f>SQRT(((1/C11)*$E$18)^2+(-(F11/(C11^2))*$E$19)^2)</f>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
         <v>3.7447908589075905E-6</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>0.115</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1.82</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>8.5999999999999998E-4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="9">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
+      <c r="F13" s="31">
+        <f t="shared" si="2"/>
         <v>8.3999999999999993E-4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10">
+      <c r="G13" s="31"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>4.6153846153846147E-4</v>
       </c>
-      <c r="I12" s="13">
-        <f>SQRT(((1/C12)*$E$18)^2+(-(F12/(C12^2))*$E$19)^2)</f>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
         <v>2.5947667756839939E-6</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>1.83</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>5.3200000000000003E-4</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
+      <c r="F14" s="31">
+        <f t="shared" si="2"/>
         <v>5.2300000000000003E-4</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10">
+      <c r="G14" s="31"/>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>2.8579234972677596E-4</v>
       </c>
-      <c r="I13" s="13">
-        <f>SQRT(((1/C13)*$E$18)^2+(-(F13/(C13^2))*$E$19)^2)</f>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
         <v>1.6545494046236649E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>1.82</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
+      <c r="F15" s="31">
+        <f t="shared" si="2"/>
         <v>2.99E-4</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10">
+      <c r="G15" s="31"/>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>1.6428571428571428E-4</v>
       </c>
-      <c r="I14" s="13">
-        <f>SQRT(((1/C14)*$E$18)^2+(-(F14/(C14^2))*$E$19)^2)</f>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
         <v>1.0567434864863627E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" cm="1">
-        <f t="array" ref="A17:A28">((B$50*A3:A14)+C$50)-C$52</f>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" cm="1">
+        <f t="array" ref="A18:A29">((B$51*A4:A15)+C$51)-C$53</f>
         <v>2.1430782028849082E-3</v>
       </c>
-      <c r="B17" cm="1">
-        <f t="array" ref="B17:B28">(B$50*A3:A14+C$50)+C$52</f>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:B29">(B$51*A4:A15+C$51)+C$53</f>
         <v>2.1709780369327299E-3</v>
       </c>
-      <c r="C17" s="36">
-        <f>H3-(B$50*A3+C$50)</f>
+      <c r="C18" s="26">
+        <f>H4-(B$51*A4+C$51)</f>
         <v>1.037519500830808E-5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1.9754035767394259E-3</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2.0033034107872476E-3</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:C28" si="2">H4-(B$50*A4+C$50)</f>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:C29" si="3">H5-(B$51*A5+C$51)</f>
         <v>1.4471642848684716E-5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1.7765336713110639E-3</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>1.8044335053588856E-3</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="2"/>
+      <c r="C20" s="3">
+        <f t="shared" si="3"/>
         <v>-1.465941251079894E-5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.01</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I20" s="30"/>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1.618607569941482E-3</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1.6465074039893038E-3</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="2"/>
+      <c r="C21" s="3">
+        <f t="shared" si="3"/>
         <v>1.1398556990651005E-5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="15">
         <v>5.4799999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1.43728500910974E-3</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1.4651848431575618E-3</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="2"/>
+      <c r="C22" s="3">
+        <f t="shared" si="3"/>
         <v>-1.2349261336510198E-6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.1</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I22" s="11">
         <v>5.47E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1.2384151036813778E-3</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1.2663149377291996E-3</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="2"/>
+      <c r="C23" s="3">
+        <f t="shared" si="3"/>
         <v>-2.6135512508567533E-5</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="11">
         <v>5.4900000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1.0629416577151757E-3</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1.0908414917629975E-3</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
+      <c r="C24" s="3">
+        <f t="shared" si="3"/>
         <v>-3.4109117556611196E-6</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="9">
-        <f>AVERAGE(I20:I22)</f>
+      <c r="H24" s="4"/>
+      <c r="I24" s="18">
+        <f>AVERAGE(I21:I23)</f>
         <v>5.4799999999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>8.8356880183861378E-4</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>9.1146863588643533E-4</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
+      <c r="C25" s="3">
+        <f t="shared" si="3"/>
         <v>1.3823800385742539E-6</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>6.769000765895314E-4</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>7.0479991063735294E-4</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
         <v>-1.6674169437618067E-5</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="8">
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>4.4683489187828874E-4</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>4.7473472592611039E-4</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" si="2"/>
+      <c r="C27" s="3">
+        <f t="shared" si="3"/>
         <v>7.536526362619117E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>2.6356262609136664E-4</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>2.9146246013918829E-4</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="2"/>
+      <c r="C28" s="3">
+        <f t="shared" si="3"/>
         <v>8.2798066114984936E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1.3488209904948515E-4</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>1.627819330973068E-4</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" si="2"/>
+      <c r="C29" s="3">
+        <f t="shared" si="3"/>
         <v>1.54536982123183E-5</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="26" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="18">
-        <f>PI()/4*I23^2*B50</f>
+      <c r="H49" s="30"/>
+      <c r="I49" s="17">
+        <f>PI()/4*I24^2*B51</f>
         <v>9.1970784175128304E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="G50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="1">
-        <f>SQRT((2*B50*I23*I25)^2+(I23^2*B51)^2)</f>
+      <c r="H50" s="30"/>
+      <c r="I50" s="1">
+        <f>SQRT((2*B51*I24*I26)^2+(I24^2*B52)^2)</f>
         <v>2.4670415669268063E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
-        <f t="array" ref="B50:C52">LINEST(H3:H14,A3:A14,TRUE,TRUE)</f>
+      <c r="B51" s="8">
+        <f t="array" ref="B51:C53">LINEST(H4:H15,A4:A15,TRUE,TRUE)</f>
         <v>3.8994099103600447E-3</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C51" s="8">
         <v>1.2352669210794398E-5</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="37">
-        <f>I49/I48</f>
+      <c r="H51" s="30"/>
+      <c r="I51" s="27">
+        <f>I50/I49</f>
         <v>0.26824187583625814</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>2.4372282967834937E-5</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>8.1832405082059051E-6</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="8">
+      <c r="H52" s="30"/>
+      <c r="I52" s="8">
         <v>8.9999999999999999E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B53" s="25">
         <v>0.99960949642458985</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="8">
         <v>1.3949917023910817E-5</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="11">
-        <f>ABS(I51-I48)/I51</f>
+      <c r="H53" s="30"/>
+      <c r="I53" s="10">
+        <f>ABS(I52-I49)/I52</f>
         <v>2.1897601945870065E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
@@ -21749,6 +21807,17 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21761,788 +21830,779 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="22" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.52</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.82</v>
-      </c>
-      <c r="D3" s="6">
-        <v>5.96E-3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F3" s="19">
-        <f>D3-E3</f>
-        <v>5.9579999999999998E-3</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H14" si="0">F3/C3</f>
-        <v>3.2736263736263733E-3</v>
-      </c>
-      <c r="I3" s="13">
-        <f>SQRT(((1/C3)*$E$17)^2+(-(F3/(C3^2))*$E$18)^2)</f>
-        <v>1.7995348217916337E-5</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0.47749999999999998</v>
       </c>
       <c r="B4" s="6">
         <v>19.100000000000001</v>
       </c>
       <c r="C4" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.96E-3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F4" s="31">
+        <f>D4-E4</f>
+        <v>5.9579999999999998E-3</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H15" si="0">F4/C4</f>
+        <v>3.2736263736263733E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="1">SQRT(((1/C4)*$E$18)^2+(-(F4/(C4^2))*$E$19)^2)</f>
+        <v>1.7995348217916337E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5" s="6">
         <v>1.84</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="6">
         <v>5.5050000000000003E-3</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4:F14" si="1">D4-E4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F15" si="2">D5-E5</f>
         <v>5.4940000000000006E-3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10">
+      <c r="G5" s="31"/>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>2.9858695652173915E-3</v>
       </c>
-      <c r="I4" s="13">
-        <f>SQRT(((1/C4)*$E$17)^2+(-(F4/(C4^2))*$E$18)^2)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
         <v>1.623665027159012E-5</v>
       </c>
-      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>0.42799999999999999</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>1.82</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
+      <c r="F6" s="31">
+        <f t="shared" si="2"/>
         <v>4.888E-3</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10">
+      <c r="G6" s="31"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>2.6857142857142856E-3</v>
       </c>
-      <c r="I5" s="13">
-        <f>SQRT(((1/C5)*$E$17)^2+(-(F5/(C5^2))*$E$18)^2)</f>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
         <v>1.4766897489203395E-5</v>
       </c>
-      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0.375</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1.84</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>4.326E-3</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
+      <c r="F7" s="31">
+        <f t="shared" si="2"/>
         <v>4.313E-3</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10">
+      <c r="G7" s="31"/>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>2.3440217391304348E-3</v>
       </c>
-      <c r="I6" s="13">
-        <f>SQRT(((1/C6)*$E$17)^2+(-(F6/(C6^2))*$E$18)^2)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
         <v>1.2750836171008659E-5</v>
       </c>
-      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>0.33100000000000002</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>1.83</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>3.8080000000000002E-3</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
         <v>3.7930000000000004E-3</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
+      <c r="G8" s="31"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>2.0726775956284153E-3</v>
       </c>
-      <c r="I7" s="13">
-        <f>SQRT(((1/C7)*$E$17)^2+(-(F7/(C7^2))*$E$18)^2)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
         <v>1.1339281595341476E-5</v>
       </c>
-      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1.74</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>3.369E-3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
         <v>3.3630000000000001E-3</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10">
+      <c r="G9" s="31"/>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>1.9327586206896552E-3</v>
       </c>
-      <c r="I8" s="13">
-        <f>SQRT(((1/C8)*$E$17)^2+(-(F8/(C8^2))*$E$18)^2)</f>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
         <v>1.1122665905737106E-5</v>
       </c>
-      <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>0.23899999999999999</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1.83</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>2.7399999999999998E-3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>-3.0000000000000001E-6</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
         <v>2.7429999999999998E-3</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10">
+      <c r="G10" s="31"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>1.4989071038251365E-3</v>
       </c>
-      <c r="I9" s="13">
-        <f>SQRT(((1/C9)*$E$17)^2+(-(F9/(C9^2))*$E$18)^2)</f>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
         <v>8.2089571804043309E-6</v>
       </c>
-      <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>0.19</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1.84</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>2.196E-3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
         <v>2.1949999999999999E-3</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10">
+      <c r="G11" s="31"/>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>1.1929347826086956E-3</v>
       </c>
-      <c r="I10" s="13">
-        <f>SQRT(((1/C10)*$E$17)^2+(-(F10/(C10^2))*$E$18)^2)</f>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>6.506080376318449E-6</v>
       </c>
-      <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>0.14149999999999999</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>1.83</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>1.653E-3</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
         <v>1.65E-3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>9.0163934426229508E-4</v>
       </c>
-      <c r="I11" s="13">
-        <f>SQRT(((1/C11)*$E$17)^2+(-(F11/(C11^2))*$E$18)^2)</f>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
         <v>4.9572013632533083E-6</v>
       </c>
-      <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>0.09</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1.82</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>1.057E-3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="9">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
+      <c r="F13" s="31">
+        <f t="shared" si="2"/>
         <v>1.054E-3</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10">
+      <c r="G13" s="31"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>5.7912087912087909E-4</v>
       </c>
-      <c r="I12" s="13">
-        <f>SQRT(((1/C12)*$E$17)^2+(-(F12/(C12^2))*$E$18)^2)</f>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
         <v>3.2290727428632584E-6</v>
       </c>
-      <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>1.82</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
+      <c r="F14" s="31">
+        <f t="shared" si="2"/>
         <v>4.6499999999999997E-4</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10">
+      <c r="G14" s="31"/>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>2.5549450549450546E-4</v>
       </c>
-      <c r="I13" s="13">
-        <f>SQRT(((1/C13)*$E$17)^2+(-(F13/(C13^2))*$E$18)^2)</f>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
         <v>1.5075129080011814E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>1.83</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>1.12E-4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
+      <c r="F15" s="31">
+        <f t="shared" si="2"/>
         <v>1.02E-4</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10">
+      <c r="G15" s="31"/>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>5.5737704918032785E-5</v>
       </c>
-      <c r="I14" s="13">
-        <f>SQRT(((1/C14)*$E$17)^2+(-(F14/(C14^2))*$E$18)^2)</f>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
         <v>6.2559814608683278E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I17" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" cm="1">
-        <f t="array" ref="A17:A28">((B$50*A3:A14)+C$50)-C$52</f>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" cm="1">
+        <f t="array" ref="A18:A29">((B$51*A4:A15)+C$51)-C$53</f>
         <v>3.2332338911147522E-3</v>
       </c>
-      <c r="B17" cm="1">
-        <f t="array" ref="B17:B28">(B$50*A3:A14+C$50)+C$52</f>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:B29">(B$51*A4:A15+C$51)+C$53</f>
         <v>3.3011790782018044E-3</v>
       </c>
-      <c r="C17" s="36">
-        <f>H3-(B$50*A3+C$50)</f>
+      <c r="C18" s="26">
+        <f>H4-(B$51*A4+C$51)</f>
         <v>6.4198889680950125E-6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="11">
         <v>4.4600000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>2.9682502740044545E-3</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3.0361954610915068E-3</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:C28" si="2">H4-(B$50*A4+C$50)</f>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:C29" si="3">H5-(B$51*A5+C$51)</f>
         <v>-1.635330233058915E-5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.01</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="11">
         <v>4.47E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2.6596222964289313E-3</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2.7275674835159835E-3</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="2"/>
+      <c r="C20" s="3">
+        <f t="shared" si="3"/>
         <v>-7.8806042581717507E-6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="11">
         <v>4.45E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2.3291721386207954E-3</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.3971173257078477E-3</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="2"/>
+      <c r="C21" s="3">
+        <f t="shared" si="3"/>
         <v>-1.912299303388678E-5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9">
-        <f>AVERAGE(I17:I19)</f>
+      <c r="H21" s="4"/>
+      <c r="I21" s="18">
+        <f>AVERAGE(I18:I20)</f>
         <v>4.4599999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>2.0548361585536637E-3</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2.1227813456407159E-3</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="2"/>
+      <c r="C22" s="3">
+        <f t="shared" si="3"/>
         <v>-1.6131156468774527E-5</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1.7992049044001997E-3</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1.8671500914872524E-3</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="2"/>
+      <c r="C23" s="3">
+        <f t="shared" si="3"/>
         <v>9.9581122745929151E-5</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="8">
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1.4812245638678426E-3</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1.5491697509548953E-3</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
+      <c r="C24" s="3">
+        <f t="shared" si="3"/>
         <v>-1.6290053586232424E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>1.1757140406112641E-3</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.2436592276983168E-3</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
+      <c r="C25" s="3">
+        <f t="shared" si="3"/>
         <v>-1.6751851546094884E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>8.7332097167363047E-4</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>9.4126615876068294E-4</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
         <v>-5.6542209548616227E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>5.522231768223286E-4</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>6.2016836390938108E-4</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" si="2"/>
+      <c r="C27" s="3">
+        <f t="shared" si="3"/>
         <v>-7.0748912449757496E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>2.2177301901419268E-4</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>2.8971820610124524E-4</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="2"/>
+      <c r="C28" s="3">
+        <f t="shared" si="3"/>
         <v>-2.5110706321348694E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>2.2255942601733283E-5</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>9.0201129688785819E-5</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" si="2"/>
+      <c r="C29" s="3">
+        <f t="shared" si="3"/>
         <v>-4.9083122722676291E-7</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="26" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="14">
-        <f>PI()/4*I20^2*B50</f>
+      <c r="H49" s="30"/>
+      <c r="I49" s="13">
+        <f>PI()/4*I21^2*B51</f>
         <v>9.7406893443006333E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="G50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="1">
-        <f>SQRT((2*B50*I20*I22)^2+(I20^2*B51)^2)</f>
+      <c r="H50" s="30"/>
+      <c r="I50" s="1">
+        <f>SQRT((2*B51*I21*I23)^2+(I21^2*B52)^2)</f>
         <v>3.2111940747850429E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
-        <f t="array" ref="B50:C52">LINEST(H3:H14,A3:A14,TRUE,TRUE)</f>
+      <c r="B51" s="8">
+        <f t="array" ref="B51:C53">LINEST(H4:H15,A4:A15,TRUE,TRUE)</f>
         <v>6.2349086378893567E-3</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C51" s="8">
         <v>2.5053992955812766E-5</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="32">
-        <f>I49/I48</f>
+      <c r="H51" s="30"/>
+      <c r="I51" s="22">
+        <f>I50/I49</f>
         <v>0.32966805133395843</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>5.9561441557343791E-5</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>1.8346902022609079E-5</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="8">
+      <c r="H52" s="30"/>
+      <c r="I52" s="8">
         <v>8.9999999999999999E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B53" s="25">
         <v>0.99908825358217113</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="8">
         <v>3.3972593543526265E-5</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="11">
-        <f>ABS(I51-I48)/I51</f>
+      <c r="H53" s="30"/>
+      <c r="I53" s="10">
+        <f>ABS(I52-I49)/I52</f>
         <v>8.2298816033403721E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
@@ -22550,6 +22610,17 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22562,788 +22633,791 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="22" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.93700000000000006</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="D3" s="10">
-        <v>6.2600000000000004E-4</v>
-      </c>
-      <c r="E3" s="10">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="F3" s="19">
-        <f>D3-E3</f>
-        <v>6.1800000000000006E-4</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H14" si="0">F3/C3</f>
-        <v>3.3586956521739132E-4</v>
-      </c>
-      <c r="I3" s="13">
-        <f>SQRT(((1/C3)*$E$17)^2+(-(F3/(C3^2))*$E$18)^2)</f>
-        <v>1.9045665452193934E-6</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0.84499999999999997</v>
       </c>
       <c r="B4" s="6">
         <v>19.100000000000001</v>
       </c>
       <c r="C4" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6.2600000000000004E-4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="F4" s="31">
+        <f>D4-E4</f>
+        <v>6.1800000000000006E-4</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H15" si="0">F4/C4</f>
+        <v>3.3586956521739132E-4</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="1">SQRT(((1/C4)*$E$18)^2+(-(F4/(C4^2))*$E$19)^2)</f>
+        <v>1.9045665452193934E-6</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5" s="6">
         <v>1.85</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="9">
         <v>5.7399999999999997E-4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="11">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4:F14" si="1">D4-E4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F15" si="2">D5-E5</f>
         <v>5.6099999999999998E-4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10">
+      <c r="G5" s="31"/>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>3.0324324324324323E-4</v>
       </c>
-      <c r="I4" s="13">
-        <f>SQRT(((1/C4)*$E$17)^2+(-(F4/(C4^2))*$E$18)^2)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
         <v>1.7259795882373161E-6</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>0.76500000000000001</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>1.85</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="9">
         <v>5.2300000000000003E-4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
+      <c r="F6" s="31">
+        <f t="shared" si="2"/>
         <v>5.0299999999999997E-4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10">
+      <c r="G6" s="31"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>2.7189189189189185E-4</v>
       </c>
-      <c r="I5" s="13">
-        <f>SQRT(((1/C5)*$E$17)^2+(-(F5/(C5^2))*$E$18)^2)</f>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
         <v>1.5659376510108065E-6</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0.67500000000000004</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1.85</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="9">
         <v>4.6299999999999998E-4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
+      <c r="F7" s="31">
+        <f t="shared" si="2"/>
         <v>4.5099999999999996E-4</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10">
+      <c r="G7" s="31"/>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>2.4378378378378375E-4</v>
       </c>
-      <c r="I6" s="13">
-        <f>SQRT(((1/C6)*$E$17)^2+(-(F6/(C6^2))*$E$18)^2)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
         <v>1.4243067154759363E-6</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>1.85</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="9">
         <v>3.9199999999999999E-4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="9">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
         <v>3.7599999999999998E-4</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
+      <c r="G8" s="31"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>2.0324324324324323E-4</v>
       </c>
-      <c r="I7" s="13">
-        <f>SQRT(((1/C7)*$E$17)^2+(-(F7/(C7^2))*$E$18)^2)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
         <v>1.2243907377015055E-6</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>0.499</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1.85</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="9">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
         <v>3.3399999999999999E-4</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10">
+      <c r="G9" s="31"/>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>1.8054054054054053E-4</v>
       </c>
-      <c r="I8" s="13">
-        <f>SQRT(((1/C8)*$E$17)^2+(-(F8/(C8^2))*$E$18)^2)</f>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
         <v>1.1155961471061767E-6</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>0.40400000000000003</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1.84</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="9">
         <v>2.8699999999999998E-4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10">
+      <c r="G10" s="31"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>1.4510869565217391E-4</v>
       </c>
-      <c r="I9" s="13">
-        <f>SQRT(((1/C9)*$E$17)^2+(-(F9/(C9^2))*$E$18)^2)</f>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
         <v>9.5776434778947485E-7</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>0.3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1.85</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="9">
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
         <v>2.03E-4</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10">
+      <c r="G11" s="31"/>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>1.0972972972972972E-4</v>
       </c>
-      <c r="I10" s="13">
-        <f>SQRT(((1/C10)*$E$17)^2+(-(F10/(C10^2))*$E$18)^2)</f>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>8.0249089182080757E-7</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>0.20300000000000001</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>1.85</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="9">
         <v>1.5100000000000001E-4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
         <v>1.36E-4</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>7.3513513513513503E-5</v>
       </c>
-      <c r="I11" s="13">
-        <f>SQRT(((1/C11)*$E$17)^2+(-(F11/(C11^2))*$E$18)^2)</f>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
         <v>6.7088543412058456E-7</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>0.13850000000000001</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1.85</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="9">
         <v>1.11E-4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
+      <c r="F13" s="31">
+        <f t="shared" si="2"/>
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10">
+      <c r="G13" s="31"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>5.1891891891891892E-5</v>
       </c>
-      <c r="I12" s="13">
-        <f>SQRT(((1/C12)*$E$17)^2+(-(F12/(C12^2))*$E$18)^2)</f>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
         <v>6.0898479614183728E-7</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>1.85</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="9">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
+      <c r="F14" s="31">
+        <f t="shared" si="2"/>
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10">
+      <c r="G14" s="31"/>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>2.3783783783783782E-5</v>
       </c>
-      <c r="I13" s="13">
-        <f>SQRT(((1/C13)*$E$17)^2+(-(F13/(C13^2))*$E$18)^2)</f>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
         <v>5.5561857870170546E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>1.85</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="9">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
+      <c r="F15" s="31">
+        <f t="shared" si="2"/>
         <v>1.1E-5</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10">
+      <c r="G15" s="31"/>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>5.9459459459459454E-6</v>
       </c>
-      <c r="I14" s="13">
-        <f>SQRT(((1/C14)*$E$17)^2+(-(F14/(C14^2))*$E$18)^2)</f>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
         <v>5.4149521838357436E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I17" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" cm="1">
-        <f t="array" ref="A17:A28">((B$50*A3:A14)+C$50)-C$52</f>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" cm="1">
+        <f t="array" ref="A18:A29">((B$51*A4:A15)+C$51)-C$53</f>
         <v>3.3429635377461679E-4</v>
       </c>
-      <c r="B17" cm="1">
-        <f t="array" ref="B17:B28">(B$50*A3:A14+C$50)+C$52</f>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:B29">(B$51*A4:A15+C$51)+C$53</f>
         <v>3.3688277482671466E-4</v>
       </c>
-      <c r="C17" s="36">
-        <f>H3-(B$50*A3+C$50)</f>
+      <c r="C18" s="26">
+        <f>H4-(B$51*A4+C$51)</f>
         <v>2.8000091672558897E-7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="11">
         <v>7.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>3.0148216882880494E-4</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3.0406858988090281E-4</v>
       </c>
-      <c r="C18" s="36">
-        <f t="shared" ref="C18:C28" si="2">H4-(B$50*A4+C$50)</f>
+      <c r="C19" s="26">
+        <f t="shared" ref="C19:C29" si="3">H5-(B$51*A5+C$51)</f>
         <v>4.6786388838935275E-7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.01</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="11">
         <v>7.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2.7294809496288149E-4</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2.7553451601497936E-4</v>
       </c>
-      <c r="C19" s="36">
-        <f t="shared" si="2"/>
+      <c r="C20" s="26">
+        <f t="shared" si="3"/>
         <v>-2.3494135970385764E-6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="11">
         <v>7.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2.4084726186371776E-4</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.4343368291581562E-4</v>
       </c>
-      <c r="C20" s="36">
-        <f t="shared" si="2"/>
+      <c r="C21" s="26">
+        <f t="shared" si="3"/>
         <v>1.6433113940170555E-6</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9">
-        <f>AVERAGE(I17:I19)</f>
+      <c r="H21" s="4"/>
+      <c r="I21" s="18">
+        <f>AVERAGE(I18:I20)</f>
         <v>7.9466666666666661E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>2.0339628991469327E-4</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2.0598271096679114E-4</v>
       </c>
-      <c r="C21" s="36">
-        <f t="shared" si="2"/>
+      <c r="C22" s="26">
+        <f t="shared" si="3"/>
         <v>-1.4462571974989749E-6</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1.7807229935868632E-4</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1.8065872041078419E-4</v>
       </c>
-      <c r="C22" s="36">
-        <f t="shared" si="2"/>
+      <c r="C23" s="26">
+        <f t="shared" si="3"/>
         <v>1.1750306558052748E-6</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="8">
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1.4418808664290231E-4</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1.4677450769500018E-4</v>
       </c>
-      <c r="C23" s="36">
-        <f t="shared" si="2"/>
+      <c r="C24" s="26">
+        <f t="shared" si="3"/>
         <v>-3.726015167773353E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>1.070937906172019E-4</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.0968021166929977E-4</v>
       </c>
-      <c r="C24" s="36">
-        <f t="shared" si="2"/>
+      <c r="C25" s="26">
+        <f t="shared" si="3"/>
         <v>1.3427285864788836E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>7.2496226054769825E-5</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>7.5082647106867694E-5</v>
       </c>
-      <c r="C25" s="36">
-        <f t="shared" si="2"/>
+      <c r="C26" s="26">
+        <f t="shared" si="3"/>
         <v>-2.7592306730525639E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>4.9490629000369099E-5</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>5.2077050052466969E-5</v>
       </c>
-      <c r="C26" s="36">
-        <f t="shared" si="2"/>
+      <c r="C27" s="26">
+        <f t="shared" si="3"/>
         <v>1.1080523654738585E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>2.3631624559376037E-5</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>2.62180456114739E-5</v>
       </c>
-      <c r="C27" s="36">
-        <f t="shared" si="2"/>
+      <c r="C28" s="26">
+        <f t="shared" si="3"/>
         <v>-1.1410513016411864E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>5.0844765465258419E-6</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>7.6708975986237047E-6</v>
       </c>
-      <c r="C28" s="36">
-        <f t="shared" si="2"/>
+      <c r="C29" s="26">
+        <f t="shared" si="3"/>
         <v>-4.3174112662882787E-7</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="26" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="14">
-        <f>PI()/4*I20^2*B50</f>
+      <c r="H49" s="30"/>
+      <c r="I49" s="13">
+        <f>PI()/4*I21^2*B51</f>
         <v>1.7690237690270963E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="G50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="1">
-        <f>SQRT((2*B50*I20*I22)^2+(I20^2*B51)^2)</f>
+      <c r="H50" s="30"/>
+      <c r="I50" s="1">
+        <f>SQRT((2*B51*I21*I23)^2+(I21^2*B52)^2)</f>
         <v>3.2718237203515365E-9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
-        <f t="array" ref="B50:C52">LINEST(H3:H14,A3:A14,TRUE,TRUE)</f>
+      <c r="B51" s="8">
+        <f t="array" ref="B51:C53">LINEST(H4:H15,A4:A15,TRUE,TRUE)</f>
         <v>3.5667592332404221E-4</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C51" s="8">
         <v>1.3842241460381821E-6</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="37">
-        <f>I49/I48</f>
+      <c r="H51" s="30"/>
+      <c r="I51" s="27">
+        <f>I50/I49</f>
         <v>0.18495080606807957</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>1.2443742258912009E-6</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>6.744255990491681E-7</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="8">
+      <c r="H52" s="30"/>
+      <c r="I52" s="8">
         <v>1.7E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B53" s="25">
         <v>0.99987829692039298</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="8">
         <v>1.2932105260489316E-6</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="11">
-        <f>ABS(I51-I48)/I51</f>
+      <c r="H53" s="30"/>
+      <c r="I53" s="10">
+        <f>ABS(I52-I49)/I52</f>
         <v>4.0602217074762505E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
@@ -23351,6 +23425,17 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23363,111 +23448,93 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="22" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.35799999999999998</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.85</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1.7229000000000001E-2</v>
-      </c>
-      <c r="E3" s="10">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="F3" s="19">
-        <f>D3-E3</f>
-        <v>1.7225000000000001E-2</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H14" si="0">F3/C3</f>
-        <v>9.3108108108108101E-3</v>
-      </c>
-      <c r="I3" s="13">
-        <f>SQRT(((1/C3)*$E$17)^2+(-(F3/(C3^2))*$E$18)^2)</f>
-        <v>5.0331609759378707E-5</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0.31850000000000001</v>
       </c>
       <c r="B4" s="6">
         <v>19.100000000000001</v>
@@ -23475,675 +23542,696 @@
       <c r="C4" s="6">
         <v>1.85</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
+        <v>1.7229000000000001E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="F4" s="31">
+        <f>D4-E4</f>
+        <v>1.7225000000000001E-2</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H15" si="0">F4/C4</f>
+        <v>9.3108108108108101E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="1">SQRT(((1/C4)*$E$18)^2+(-(F4/(C4^2))*$E$19)^2)</f>
+        <v>5.0331609759378707E-5</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="D5" s="9">
         <v>1.5511E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="9">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4:F14" si="1">D4-E4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F15" si="2">D5-E5</f>
         <v>1.5508000000000001E-2</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10">
+      <c r="G5" s="31"/>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>8.3827027027027021E-3</v>
       </c>
-      <c r="I4" s="13">
-        <f>SQRT(((1/C4)*$E$17)^2+(-(F4/(C4^2))*$E$18)^2)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
         <v>4.5315130528775989E-5</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>1.85</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="9">
         <v>1.3481E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" si="1"/>
+      <c r="F6" s="31">
+        <f t="shared" si="2"/>
         <v>1.3476E-2</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10">
+      <c r="G6" s="31"/>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>7.2843243243243243E-3</v>
       </c>
-      <c r="I5" s="13">
-        <f>SQRT(((1/C5)*$E$17)^2+(-(F5/(C5^2))*$E$18)^2)</f>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
         <v>3.9378436202425784E-5</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0.23499999999999999</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1.85</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="9">
         <v>1.1533E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="1"/>
+      <c r="F7" s="31">
+        <f t="shared" si="2"/>
         <v>1.1532000000000001E-2</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10">
+      <c r="G7" s="31"/>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>6.2335135135135134E-3</v>
       </c>
-      <c r="I6" s="13">
-        <f>SQRT(((1/C6)*$E$17)^2+(-(F6/(C6^2))*$E$18)^2)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
         <v>3.3699003123050697E-5</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>1.85</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="9">
         <v>9.5549999999999993E-3</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
         <v>9.554E-3</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
+      <c r="G8" s="31"/>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>5.164324324324324E-3</v>
       </c>
-      <c r="I7" s="13">
-        <f>SQRT(((1/C7)*$E$17)^2+(-(F7/(C7^2))*$E$18)^2)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
         <v>2.7920499537584925E-5</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>0.155</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1.85</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="9">
         <v>7.7219999999999997E-3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
         <v>7.7219999999999997E-3</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10">
+      <c r="G9" s="31"/>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>4.1740540540540537E-3</v>
       </c>
-      <c r="I8" s="13">
-        <f>SQRT(((1/C8)*$E$17)^2+(-(F8/(C8^2))*$E$18)^2)</f>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
         <v>2.2568928423876212E-5</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>0.125</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1.85</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="9">
         <v>6.2870000000000001E-3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
         <v>6.2830000000000004E-3</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10">
+      <c r="G10" s="31"/>
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>3.3962162162162165E-3</v>
       </c>
-      <c r="I9" s="13">
-        <f>SQRT(((1/C9)*$E$17)^2+(-(F9/(C9^2))*$E$18)^2)</f>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
         <v>1.8365881750809928E-5</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1.85</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="9">
         <v>5.0200000000000002E-3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="9">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
         <v>5.0179999999999999E-3</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10">
+      <c r="G11" s="31"/>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>2.7124324324324322E-3</v>
       </c>
-      <c r="I10" s="13">
-        <f>SQRT(((1/C10)*$E$17)^2+(-(F10/(C10^2))*$E$18)^2)</f>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>1.46717576776998E-5</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>1.85</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="9">
         <v>3.3830000000000002E-3</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
         <v>3.3830000000000002E-3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>1.8286486486486487E-3</v>
       </c>
-      <c r="I11" s="13">
-        <f>SQRT(((1/C11)*$E$17)^2+(-(F11/(C11^2))*$E$18)^2)</f>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
         <v>9.8993560381194999E-6</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1.85</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="9">
         <v>2.2539999999999999E-3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="9">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
+      <c r="F13" s="31">
+        <f t="shared" si="2"/>
         <v>2.2520000000000001E-3</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10">
+      <c r="G13" s="31"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>1.2172972972972972E-3</v>
       </c>
-      <c r="I12" s="13">
-        <f>SQRT(((1/C12)*$E$17)^2+(-(F12/(C12^2))*$E$18)^2)</f>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
         <v>6.6021505450163212E-6</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>1.85</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="9">
         <v>1.33E-3</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
+      <c r="F14" s="31">
+        <f t="shared" si="2"/>
         <v>1.328E-3</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10">
+      <c r="G14" s="31"/>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>7.1783783783783777E-4</v>
       </c>
-      <c r="I13" s="13">
-        <f>SQRT(((1/C13)*$E$17)^2+(-(F13/(C13^2))*$E$18)^2)</f>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
         <v>3.9176742158710149E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>1.85</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="9">
         <v>6.0300000000000002E-4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
+      <c r="F15" s="31">
+        <f t="shared" si="2"/>
         <v>6.02E-4</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10">
+      <c r="G15" s="31"/>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>3.2540540540540539E-4</v>
       </c>
-      <c r="I14" s="13">
-        <f>SQRT(((1/C14)*$E$17)^2+(-(F14/(C14^2))*$E$18)^2)</f>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
         <v>1.8401311436341373E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I17" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" cm="1">
-        <f t="array" ref="A17:A28">((B$50*A3:A14)+C$50)-C$52</f>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" cm="1">
+        <f t="array" ref="A18:A29">((B$51*A4:A15)+C$51)-C$53</f>
         <v>9.3447052545237962E-3</v>
       </c>
-      <c r="B17" cm="1">
-        <f t="array" ref="B17:B28">(B$50*A3:A14+C$50)+C$52</f>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:B29">(B$51*A4:A15+C$51)+C$53</f>
         <v>9.4174148400702762E-3</v>
       </c>
-      <c r="C17" s="3">
-        <f>H3-(B$50*A3+C$50)</f>
+      <c r="C18" s="3">
+        <f>H4-(B$51*A4+C$51)</f>
         <v>-7.0249236486226094E-5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="11">
         <v>6.4700000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>8.3269542466055321E-3</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>8.3996638321520121E-3</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:C28" si="2">H4-(B$50*A4+C$50)</f>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:C29" si="3">H5-(B$51*A5+C$51)</f>
         <v>1.9393663323929999E-5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.01</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="11">
         <v>6.4599999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>7.2061398454803553E-3</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>7.2788494310268336E-3</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="2"/>
+      <c r="C20" s="3">
+        <f t="shared" si="3"/>
         <v>4.1829686070729913E-5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="11">
         <v>6.4700000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>6.1755059134112247E-3</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>6.248215498957703E-3</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="2"/>
+      <c r="C21" s="3">
+        <f t="shared" si="3"/>
         <v>2.1652807329049575E-5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9">
-        <f>AVERAGE(I17:I19)</f>
+      <c r="H21" s="4"/>
+      <c r="I21" s="18">
+        <f>AVERAGE(I18:I20)</f>
         <v>6.4666666666666666E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>5.1448719813420966E-3</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>5.2175815668885749E-3</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="2"/>
+      <c r="C22" s="3">
+        <f t="shared" si="3"/>
         <v>-1.6902449791011791E-5</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>4.1142380492729669E-3</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>4.1869476348194452E-3</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="2"/>
+      <c r="C23" s="3">
+        <f t="shared" si="3"/>
         <v>2.3461212007847704E-5</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="8">
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>3.3412626002211204E-3</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>3.4139721857675987E-3</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
+      <c r="C24" s="3">
+        <f t="shared" si="3"/>
         <v>1.8598823221856881E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>2.6713505443761868E-3</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2.7440601299226651E-3</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
+      <c r="C25" s="3">
+        <f t="shared" si="3"/>
         <v>4.7270952830062545E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>1.7695458538156985E-3</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1.8422554393621772E-3</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
         <v>2.2748002059710861E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1.2026971911776774E-3</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>1.2754067767241561E-3</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" si="2"/>
+      <c r="C27" s="3">
+        <f t="shared" si="3"/>
         <v>-2.1754686653619511E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>7.3891192174656945E-4</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>8.1162150729304796E-4</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="2"/>
+      <c r="C28" s="3">
+        <f t="shared" si="3"/>
         <v>-5.7428876681970935E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>2.751266523154613E-4</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>3.4783623786193991E-4</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" si="2"/>
+      <c r="C29" s="3">
+        <f t="shared" si="3"/>
         <v>1.3923960316704787E-5</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="26" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="14">
-        <f>PI()/4*I20^2*B50</f>
+      <c r="H49" s="30"/>
+      <c r="I49" s="13">
+        <f>PI()/4*I21^2*B51</f>
         <v>8.4624336637433035E-7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="G50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="1">
-        <f>SQRT((2*B50*I20*I22)^2+(I20^2*B51)^2)</f>
+      <c r="H50" s="30"/>
+      <c r="I50" s="1">
+        <f>SQRT((2*B51*I21*I23)^2+(I21^2*B52)^2)</f>
         <v>1.9231735364117805E-7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
-        <f t="array" ref="B50:C52">LINEST(H3:H14,A3:A14,TRUE,TRUE)</f>
+      <c r="B51" s="8">
+        <f t="array" ref="B51:C53">LINEST(H4:H15,A4:A15,TRUE,TRUE)</f>
         <v>2.5765848301728227E-2</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C51" s="8">
         <v>1.5688635527833124E-4</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="37">
-        <f>I49/I48</f>
+      <c r="H51" s="30"/>
+      <c r="I51" s="27">
+        <f>I50/I49</f>
         <v>0.22726010186070716</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>9.2437262977854048E-5</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>1.7987783303793887E-5</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="8">
-        <v>1.1999999999999999E-6</v>
+      <c r="H52" s="30"/>
+      <c r="I52" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B53" s="25">
         <v>0.9998713086458022</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="8">
         <v>3.6354792773239279E-5</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="11" t="s">
+      <c r="H53" s="30"/>
+      <c r="I53" s="10" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
@@ -24151,6 +24239,17 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
